--- a/databaza.xlsx
+++ b/databaza.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="28695" windowHeight="14310"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>ID</t>
   </si>
@@ -33,8 +33,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +99,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -177,6 +182,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -211,6 +217,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -386,21 +393,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="25.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="130.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -411,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -422,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -433,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -444,7 +451,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -452,6 +459,17 @@
         <v>12348</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>12345</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -462,24 +480,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
